--- a/DHW.xlsx
+++ b/DHW.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Charlie\Documents\GitHub\PHPP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DCA41AA-6C6D-43F1-BBBD-0A6EF314C2BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70EDAEE9-F685-44CB-A3D4-77C7EA86FEF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{9615D349-3226-4407-857B-2CC3135C9C54}"/>
   </bookViews>
@@ -427,9 +427,81 @@
   </cellStyleXfs>
   <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="1" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -437,78 +509,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="1" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -828,7 +828,7 @@
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -904,7 +904,7 @@
   <dimension ref="A1:AJ9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -912,941 +912,941 @@
     <col min="1" max="1" width="15.7265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" s="8" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
+    <row r="1" spans="1:36" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="5" t="s">
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="28"/>
+      <c r="G1" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="H1" s="6"/>
-      <c r="I1" s="6"/>
-      <c r="J1" s="6"/>
-      <c r="K1" s="7"/>
-      <c r="L1" s="5" t="s">
+      <c r="H1" s="22"/>
+      <c r="I1" s="22"/>
+      <c r="J1" s="22"/>
+      <c r="K1" s="23"/>
+      <c r="L1" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="6"/>
-      <c r="N1" s="6"/>
-      <c r="O1" s="6"/>
-      <c r="P1" s="7"/>
-      <c r="Q1" s="5" t="s">
+      <c r="M1" s="22"/>
+      <c r="N1" s="22"/>
+      <c r="O1" s="22"/>
+      <c r="P1" s="23"/>
+      <c r="Q1" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="R1" s="6"/>
-      <c r="S1" s="6"/>
-      <c r="T1" s="6"/>
-      <c r="U1" s="7"/>
-      <c r="V1" s="5" t="s">
+      <c r="R1" s="22"/>
+      <c r="S1" s="22"/>
+      <c r="T1" s="22"/>
+      <c r="U1" s="23"/>
+      <c r="V1" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="W1" s="6"/>
-      <c r="X1" s="6"/>
-      <c r="Y1" s="6"/>
-      <c r="Z1" s="7"/>
-      <c r="AA1" s="5" t="s">
+      <c r="W1" s="22"/>
+      <c r="X1" s="22"/>
+      <c r="Y1" s="22"/>
+      <c r="Z1" s="23"/>
+      <c r="AA1" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="AB1" s="6"/>
-      <c r="AC1" s="6"/>
-      <c r="AD1" s="6"/>
-      <c r="AE1" s="7"/>
-      <c r="AF1" s="5" t="s">
+      <c r="AB1" s="22"/>
+      <c r="AC1" s="22"/>
+      <c r="AD1" s="22"/>
+      <c r="AE1" s="23"/>
+      <c r="AF1" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="AG1" s="6"/>
-      <c r="AH1" s="6"/>
-      <c r="AI1" s="6"/>
-      <c r="AJ1" s="7"/>
+      <c r="AG1" s="22"/>
+      <c r="AH1" s="22"/>
+      <c r="AI1" s="22"/>
+      <c r="AJ1" s="23"/>
     </row>
-    <row r="2" spans="1:36" s="8" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="9"/>
-      <c r="B2" s="10" t="s">
+    <row r="2" spans="1:36" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="25"/>
+      <c r="B2" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="11" t="s">
+      <c r="C2" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="D2" s="11" t="s">
+      <c r="D2" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="E2" s="11" t="s">
+      <c r="E2" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="F2" s="12" t="s">
+      <c r="F2" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="G2" s="10" t="s">
+      <c r="G2" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H2" s="11" t="s">
+      <c r="H2" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="I2" s="11" t="s">
+      <c r="I2" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="J2" s="11" t="s">
+      <c r="J2" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="K2" s="12" t="s">
+      <c r="K2" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="L2" s="10" t="s">
+      <c r="L2" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="M2" s="11" t="s">
+      <c r="M2" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="N2" s="11" t="s">
+      <c r="N2" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="O2" s="11" t="s">
+      <c r="O2" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="P2" s="12" t="s">
+      <c r="P2" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="Q2" s="10" t="s">
+      <c r="Q2" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="R2" s="11" t="s">
+      <c r="R2" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="S2" s="11" t="s">
+      <c r="S2" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="T2" s="11" t="s">
+      <c r="T2" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="U2" s="12" t="s">
+      <c r="U2" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="V2" s="10" t="s">
+      <c r="V2" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="W2" s="11" t="s">
+      <c r="W2" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="X2" s="11" t="s">
+      <c r="X2" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="Y2" s="11" t="s">
+      <c r="Y2" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="Z2" s="12" t="s">
+      <c r="Z2" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="AA2" s="10" t="s">
+      <c r="AA2" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="AB2" s="11" t="s">
+      <c r="AB2" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="AC2" s="11" t="s">
+      <c r="AC2" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="AD2" s="11" t="s">
+      <c r="AD2" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="AE2" s="12" t="s">
+      <c r="AE2" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="AF2" s="10" t="s">
+      <c r="AF2" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="AG2" s="11" t="s">
+      <c r="AG2" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="AH2" s="11" t="s">
+      <c r="AH2" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="AI2" s="11" t="s">
+      <c r="AI2" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="AJ2" s="12" t="s">
+      <c r="AJ2" s="4" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:36" s="8" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="13" t="s">
+    <row r="3" spans="1:36" s="1" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A3" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="B3" s="14">
-        <v>0</v>
-      </c>
-      <c r="C3" s="15">
+      <c r="B3" s="6">
+        <v>0</v>
+      </c>
+      <c r="C3" s="7">
         <v>0.25</v>
       </c>
-      <c r="D3" s="15">
+      <c r="D3" s="7">
         <v>0.5</v>
       </c>
-      <c r="E3" s="15">
+      <c r="E3" s="7">
         <v>0.70833333333333337</v>
       </c>
-      <c r="F3" s="16">
+      <c r="F3" s="8">
         <v>0.91666666666666663</v>
       </c>
-      <c r="G3" s="14">
-        <v>0</v>
-      </c>
-      <c r="H3" s="15">
+      <c r="G3" s="6">
+        <v>0</v>
+      </c>
+      <c r="H3" s="7">
         <v>0.25</v>
       </c>
-      <c r="I3" s="15">
+      <c r="I3" s="7">
         <v>0.5</v>
       </c>
-      <c r="J3" s="15">
+      <c r="J3" s="7">
         <v>0.70833333333333337</v>
       </c>
-      <c r="K3" s="16">
+      <c r="K3" s="8">
         <v>0.91666666666666663</v>
       </c>
-      <c r="L3" s="14">
-        <v>0</v>
-      </c>
-      <c r="M3" s="15">
+      <c r="L3" s="6">
+        <v>0</v>
+      </c>
+      <c r="M3" s="7">
         <v>0.25</v>
       </c>
-      <c r="N3" s="15">
+      <c r="N3" s="7">
         <v>0.5</v>
       </c>
-      <c r="O3" s="15">
+      <c r="O3" s="7">
         <v>0.70833333333333337</v>
       </c>
-      <c r="P3" s="16">
+      <c r="P3" s="8">
         <v>0.91666666666666663</v>
       </c>
-      <c r="Q3" s="14">
-        <v>0</v>
-      </c>
-      <c r="R3" s="15">
+      <c r="Q3" s="6">
+        <v>0</v>
+      </c>
+      <c r="R3" s="7">
         <v>0.25</v>
       </c>
-      <c r="S3" s="15">
+      <c r="S3" s="7">
         <v>0.5</v>
       </c>
-      <c r="T3" s="15">
+      <c r="T3" s="7">
         <v>0.70833333333333337</v>
       </c>
-      <c r="U3" s="16">
+      <c r="U3" s="8">
         <v>0.91666666666666663</v>
       </c>
-      <c r="V3" s="14">
-        <v>0</v>
-      </c>
-      <c r="W3" s="15">
+      <c r="V3" s="6">
+        <v>0</v>
+      </c>
+      <c r="W3" s="7">
         <v>0.25</v>
       </c>
-      <c r="X3" s="15">
+      <c r="X3" s="7">
         <v>0.5</v>
       </c>
-      <c r="Y3" s="15">
+      <c r="Y3" s="7">
         <v>0.70833333333333337</v>
       </c>
-      <c r="Z3" s="16">
+      <c r="Z3" s="8">
         <v>0.91666666666666663</v>
       </c>
-      <c r="AA3" s="14">
-        <v>0</v>
-      </c>
-      <c r="AB3" s="15">
+      <c r="AA3" s="6">
+        <v>0</v>
+      </c>
+      <c r="AB3" s="7">
         <v>0.25</v>
       </c>
-      <c r="AC3" s="15">
+      <c r="AC3" s="7">
         <v>0.5</v>
       </c>
-      <c r="AD3" s="15">
+      <c r="AD3" s="7">
         <v>0.70833333333333337</v>
       </c>
-      <c r="AE3" s="16">
+      <c r="AE3" s="8">
         <v>0.91666666666666663</v>
       </c>
-      <c r="AF3" s="14">
-        <v>0</v>
-      </c>
-      <c r="AG3" s="15">
+      <c r="AF3" s="6">
+        <v>0</v>
+      </c>
+      <c r="AG3" s="7">
         <v>0.25</v>
       </c>
-      <c r="AH3" s="15">
+      <c r="AH3" s="7">
         <v>0.5</v>
       </c>
-      <c r="AI3" s="15">
+      <c r="AI3" s="7">
         <v>0.70833333333333337</v>
       </c>
-      <c r="AJ3" s="16">
+      <c r="AJ3" s="8">
         <v>0.91666666666666663</v>
       </c>
     </row>
-    <row r="4" spans="1:36" s="8" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="17" t="str">
+    <row r="4" spans="1:36" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="9" t="str">
         <f>Appliances!A2</f>
         <v>Shower 1</v>
       </c>
-      <c r="B4" s="18">
-        <v>0</v>
-      </c>
-      <c r="C4" s="19">
-        <v>1</v>
-      </c>
-      <c r="D4" s="19">
-        <v>0</v>
-      </c>
-      <c r="E4" s="19">
-        <v>0</v>
-      </c>
-      <c r="F4" s="20">
-        <v>0</v>
-      </c>
-      <c r="G4" s="18">
-        <v>0</v>
-      </c>
-      <c r="H4" s="19">
-        <v>1</v>
-      </c>
-      <c r="I4" s="19">
-        <v>0</v>
-      </c>
-      <c r="J4" s="19">
-        <v>1</v>
-      </c>
-      <c r="K4" s="20">
-        <v>0</v>
-      </c>
-      <c r="L4" s="18">
-        <v>0</v>
-      </c>
-      <c r="M4" s="19">
-        <v>1</v>
-      </c>
-      <c r="N4" s="19">
-        <v>0</v>
-      </c>
-      <c r="O4" s="19">
-        <v>1</v>
-      </c>
-      <c r="P4" s="20">
-        <v>0</v>
-      </c>
-      <c r="Q4" s="18">
-        <v>1</v>
-      </c>
-      <c r="R4" s="19">
-        <v>1</v>
-      </c>
-      <c r="S4" s="19">
-        <v>0</v>
-      </c>
-      <c r="T4" s="19">
-        <v>1</v>
-      </c>
-      <c r="U4" s="20">
-        <v>0</v>
-      </c>
-      <c r="V4" s="18">
-        <v>0</v>
-      </c>
-      <c r="W4" s="19">
-        <v>1</v>
-      </c>
-      <c r="X4" s="19">
-        <v>0</v>
-      </c>
-      <c r="Y4" s="19">
-        <v>1</v>
-      </c>
-      <c r="Z4" s="20">
-        <v>0</v>
-      </c>
-      <c r="AA4" s="18">
-        <v>0</v>
-      </c>
-      <c r="AB4" s="19">
-        <v>1</v>
-      </c>
-      <c r="AC4" s="19">
-        <v>1</v>
-      </c>
-      <c r="AD4" s="19">
-        <v>1</v>
-      </c>
-      <c r="AE4" s="20">
-        <v>0</v>
-      </c>
-      <c r="AF4" s="18">
-        <v>0</v>
-      </c>
-      <c r="AG4" s="19">
-        <v>1</v>
-      </c>
-      <c r="AH4" s="19">
-        <v>1</v>
-      </c>
-      <c r="AI4" s="19">
-        <v>1</v>
-      </c>
-      <c r="AJ4" s="20">
+      <c r="B4" s="10">
+        <v>0</v>
+      </c>
+      <c r="C4" s="11">
+        <v>1</v>
+      </c>
+      <c r="D4" s="11">
+        <v>0</v>
+      </c>
+      <c r="E4" s="11">
+        <v>0</v>
+      </c>
+      <c r="F4" s="12">
+        <v>0</v>
+      </c>
+      <c r="G4" s="10">
+        <v>0</v>
+      </c>
+      <c r="H4" s="11">
+        <v>1</v>
+      </c>
+      <c r="I4" s="11">
+        <v>0</v>
+      </c>
+      <c r="J4" s="11">
+        <v>1</v>
+      </c>
+      <c r="K4" s="12">
+        <v>0</v>
+      </c>
+      <c r="L4" s="10">
+        <v>0</v>
+      </c>
+      <c r="M4" s="11">
+        <v>1</v>
+      </c>
+      <c r="N4" s="11">
+        <v>0</v>
+      </c>
+      <c r="O4" s="11">
+        <v>1</v>
+      </c>
+      <c r="P4" s="12">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="10">
+        <v>1</v>
+      </c>
+      <c r="R4" s="11">
+        <v>1</v>
+      </c>
+      <c r="S4" s="11">
+        <v>0</v>
+      </c>
+      <c r="T4" s="11">
+        <v>1</v>
+      </c>
+      <c r="U4" s="12">
+        <v>0</v>
+      </c>
+      <c r="V4" s="10">
+        <v>0</v>
+      </c>
+      <c r="W4" s="11">
+        <v>1</v>
+      </c>
+      <c r="X4" s="11">
+        <v>0</v>
+      </c>
+      <c r="Y4" s="11">
+        <v>1</v>
+      </c>
+      <c r="Z4" s="12">
+        <v>0</v>
+      </c>
+      <c r="AA4" s="10">
+        <v>0</v>
+      </c>
+      <c r="AB4" s="11">
+        <v>1</v>
+      </c>
+      <c r="AC4" s="11">
+        <v>1</v>
+      </c>
+      <c r="AD4" s="11">
+        <v>1</v>
+      </c>
+      <c r="AE4" s="12">
+        <v>0</v>
+      </c>
+      <c r="AF4" s="10">
+        <v>0</v>
+      </c>
+      <c r="AG4" s="11">
+        <v>1</v>
+      </c>
+      <c r="AH4" s="11">
+        <v>1</v>
+      </c>
+      <c r="AI4" s="11">
+        <v>1</v>
+      </c>
+      <c r="AJ4" s="12">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:36" s="8" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="21" t="str">
+    <row r="5" spans="1:36" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="13" t="str">
         <f>Appliances!A3</f>
         <v>Shower 2</v>
       </c>
-      <c r="B5" s="22">
-        <v>0</v>
-      </c>
-      <c r="C5" s="23">
-        <v>0</v>
-      </c>
-      <c r="D5" s="23">
-        <v>0</v>
-      </c>
-      <c r="E5" s="23">
-        <v>1</v>
-      </c>
-      <c r="F5" s="24">
-        <v>0</v>
-      </c>
-      <c r="G5" s="22">
-        <v>0</v>
-      </c>
-      <c r="H5" s="23">
-        <v>0</v>
-      </c>
-      <c r="I5" s="23">
-        <v>0</v>
-      </c>
-      <c r="J5" s="23">
-        <v>1</v>
-      </c>
-      <c r="K5" s="24">
-        <v>0</v>
-      </c>
-      <c r="L5" s="22">
-        <v>0</v>
-      </c>
-      <c r="M5" s="23">
-        <v>0</v>
-      </c>
-      <c r="N5" s="23">
-        <v>0</v>
-      </c>
-      <c r="O5" s="23">
-        <v>1</v>
-      </c>
-      <c r="P5" s="24">
-        <v>0</v>
-      </c>
-      <c r="Q5" s="22">
-        <v>1</v>
-      </c>
-      <c r="R5" s="23">
-        <v>0</v>
-      </c>
-      <c r="S5" s="23">
-        <v>0</v>
-      </c>
-      <c r="T5" s="23">
-        <v>1</v>
-      </c>
-      <c r="U5" s="24">
-        <v>0</v>
-      </c>
-      <c r="V5" s="22">
-        <v>0</v>
-      </c>
-      <c r="W5" s="23">
-        <v>0</v>
-      </c>
-      <c r="X5" s="23">
-        <v>0</v>
-      </c>
-      <c r="Y5" s="23">
-        <v>1</v>
-      </c>
-      <c r="Z5" s="24">
-        <v>0</v>
-      </c>
-      <c r="AA5" s="22">
-        <v>0</v>
-      </c>
-      <c r="AB5" s="23">
-        <v>0</v>
-      </c>
-      <c r="AC5" s="23">
-        <v>0</v>
-      </c>
-      <c r="AD5" s="23">
-        <v>1</v>
-      </c>
-      <c r="AE5" s="24">
-        <v>0</v>
-      </c>
-      <c r="AF5" s="22">
-        <v>0</v>
-      </c>
-      <c r="AG5" s="23">
-        <v>0</v>
-      </c>
-      <c r="AH5" s="23">
-        <v>0</v>
-      </c>
-      <c r="AI5" s="23">
-        <v>1</v>
-      </c>
-      <c r="AJ5" s="24">
+      <c r="B5" s="14">
+        <v>0</v>
+      </c>
+      <c r="C5" s="15">
+        <v>0</v>
+      </c>
+      <c r="D5" s="15">
+        <v>0</v>
+      </c>
+      <c r="E5" s="15">
+        <v>1</v>
+      </c>
+      <c r="F5" s="16">
+        <v>0</v>
+      </c>
+      <c r="G5" s="14">
+        <v>0</v>
+      </c>
+      <c r="H5" s="15">
+        <v>0</v>
+      </c>
+      <c r="I5" s="15">
+        <v>0</v>
+      </c>
+      <c r="J5" s="15">
+        <v>1</v>
+      </c>
+      <c r="K5" s="16">
+        <v>0</v>
+      </c>
+      <c r="L5" s="14">
+        <v>0</v>
+      </c>
+      <c r="M5" s="15">
+        <v>0</v>
+      </c>
+      <c r="N5" s="15">
+        <v>0</v>
+      </c>
+      <c r="O5" s="15">
+        <v>1</v>
+      </c>
+      <c r="P5" s="16">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="14">
+        <v>1</v>
+      </c>
+      <c r="R5" s="15">
+        <v>0</v>
+      </c>
+      <c r="S5" s="15">
+        <v>0</v>
+      </c>
+      <c r="T5" s="15">
+        <v>1</v>
+      </c>
+      <c r="U5" s="16">
+        <v>0</v>
+      </c>
+      <c r="V5" s="14">
+        <v>0</v>
+      </c>
+      <c r="W5" s="15">
+        <v>0</v>
+      </c>
+      <c r="X5" s="15">
+        <v>0</v>
+      </c>
+      <c r="Y5" s="15">
+        <v>1</v>
+      </c>
+      <c r="Z5" s="16">
+        <v>0</v>
+      </c>
+      <c r="AA5" s="14">
+        <v>0</v>
+      </c>
+      <c r="AB5" s="15">
+        <v>0</v>
+      </c>
+      <c r="AC5" s="15">
+        <v>0</v>
+      </c>
+      <c r="AD5" s="15">
+        <v>1</v>
+      </c>
+      <c r="AE5" s="16">
+        <v>0</v>
+      </c>
+      <c r="AF5" s="14">
+        <v>0</v>
+      </c>
+      <c r="AG5" s="15">
+        <v>0</v>
+      </c>
+      <c r="AH5" s="15">
+        <v>0</v>
+      </c>
+      <c r="AI5" s="15">
+        <v>1</v>
+      </c>
+      <c r="AJ5" s="16">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:36" s="8" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="25" t="str">
+    <row r="6" spans="1:36" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="17" t="str">
         <f>Appliances!A4</f>
         <v>Bath 1</v>
       </c>
-      <c r="B6" s="26">
-        <v>0</v>
-      </c>
-      <c r="C6" s="27">
-        <v>0</v>
-      </c>
-      <c r="D6" s="27">
-        <v>0</v>
-      </c>
-      <c r="E6" s="27">
-        <v>1</v>
-      </c>
-      <c r="F6" s="28">
-        <v>0</v>
-      </c>
-      <c r="G6" s="26">
-        <v>0</v>
-      </c>
-      <c r="H6" s="27">
-        <v>0</v>
-      </c>
-      <c r="I6" s="27">
-        <v>0</v>
-      </c>
-      <c r="J6" s="27">
-        <v>0</v>
-      </c>
-      <c r="K6" s="28">
-        <v>0</v>
-      </c>
-      <c r="L6" s="26">
-        <v>0</v>
-      </c>
-      <c r="M6" s="27">
-        <v>1</v>
-      </c>
-      <c r="N6" s="27">
-        <v>0</v>
-      </c>
-      <c r="O6" s="27">
-        <v>0</v>
-      </c>
-      <c r="P6" s="28">
-        <v>0</v>
-      </c>
-      <c r="Q6" s="26">
-        <v>1</v>
-      </c>
-      <c r="R6" s="27">
-        <v>0</v>
-      </c>
-      <c r="S6" s="27">
-        <v>0</v>
-      </c>
-      <c r="T6" s="27">
-        <v>0</v>
-      </c>
-      <c r="U6" s="28">
-        <v>0</v>
-      </c>
-      <c r="V6" s="26">
-        <v>0</v>
-      </c>
-      <c r="W6" s="27">
-        <v>1</v>
-      </c>
-      <c r="X6" s="27">
-        <v>0</v>
-      </c>
-      <c r="Y6" s="27">
-        <v>0</v>
-      </c>
-      <c r="Z6" s="28">
-        <v>0</v>
-      </c>
-      <c r="AA6" s="26">
-        <v>0</v>
-      </c>
-      <c r="AB6" s="27">
-        <v>0</v>
-      </c>
-      <c r="AC6" s="27">
-        <v>0</v>
-      </c>
-      <c r="AD6" s="27">
-        <v>0</v>
-      </c>
-      <c r="AE6" s="28">
-        <v>0</v>
-      </c>
-      <c r="AF6" s="26">
-        <v>0</v>
-      </c>
-      <c r="AG6" s="27">
-        <v>1</v>
-      </c>
-      <c r="AH6" s="27">
-        <v>0</v>
-      </c>
-      <c r="AI6" s="27">
-        <v>0</v>
-      </c>
-      <c r="AJ6" s="28">
+      <c r="B6" s="18">
+        <v>0</v>
+      </c>
+      <c r="C6" s="19">
+        <v>0</v>
+      </c>
+      <c r="D6" s="19">
+        <v>0</v>
+      </c>
+      <c r="E6" s="19">
+        <v>1</v>
+      </c>
+      <c r="F6" s="20">
+        <v>0</v>
+      </c>
+      <c r="G6" s="18">
+        <v>0</v>
+      </c>
+      <c r="H6" s="19">
+        <v>0</v>
+      </c>
+      <c r="I6" s="19">
+        <v>0</v>
+      </c>
+      <c r="J6" s="19">
+        <v>0</v>
+      </c>
+      <c r="K6" s="20">
+        <v>0</v>
+      </c>
+      <c r="L6" s="18">
+        <v>0</v>
+      </c>
+      <c r="M6" s="19">
+        <v>1</v>
+      </c>
+      <c r="N6" s="19">
+        <v>0</v>
+      </c>
+      <c r="O6" s="19">
+        <v>0</v>
+      </c>
+      <c r="P6" s="20">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="18">
+        <v>1</v>
+      </c>
+      <c r="R6" s="19">
+        <v>0</v>
+      </c>
+      <c r="S6" s="19">
+        <v>0</v>
+      </c>
+      <c r="T6" s="19">
+        <v>0</v>
+      </c>
+      <c r="U6" s="20">
+        <v>0</v>
+      </c>
+      <c r="V6" s="18">
+        <v>0</v>
+      </c>
+      <c r="W6" s="19">
+        <v>1</v>
+      </c>
+      <c r="X6" s="19">
+        <v>0</v>
+      </c>
+      <c r="Y6" s="19">
+        <v>0</v>
+      </c>
+      <c r="Z6" s="20">
+        <v>0</v>
+      </c>
+      <c r="AA6" s="18">
+        <v>0</v>
+      </c>
+      <c r="AB6" s="19">
+        <v>0</v>
+      </c>
+      <c r="AC6" s="19">
+        <v>0</v>
+      </c>
+      <c r="AD6" s="19">
+        <v>0</v>
+      </c>
+      <c r="AE6" s="20">
+        <v>0</v>
+      </c>
+      <c r="AF6" s="18">
+        <v>0</v>
+      </c>
+      <c r="AG6" s="19">
+        <v>1</v>
+      </c>
+      <c r="AH6" s="19">
+        <v>0</v>
+      </c>
+      <c r="AI6" s="19">
+        <v>0</v>
+      </c>
+      <c r="AJ6" s="20">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:36" s="8" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="21" t="str">
+    <row r="7" spans="1:36" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="13" t="str">
         <f>Appliances!A5</f>
         <v>Kitchen Sink 1</v>
       </c>
-      <c r="B7" s="22">
-        <v>0</v>
-      </c>
-      <c r="C7" s="23">
-        <v>1</v>
-      </c>
-      <c r="D7" s="23">
-        <v>0</v>
-      </c>
-      <c r="E7" s="23">
-        <v>1</v>
-      </c>
-      <c r="F7" s="24">
-        <v>0</v>
-      </c>
-      <c r="G7" s="22">
-        <v>0</v>
-      </c>
-      <c r="H7" s="23">
-        <v>0</v>
-      </c>
-      <c r="I7" s="23">
-        <v>0</v>
-      </c>
-      <c r="J7" s="23">
-        <v>0</v>
-      </c>
-      <c r="K7" s="24">
-        <v>0</v>
-      </c>
-      <c r="L7" s="22">
-        <v>0</v>
-      </c>
-      <c r="M7" s="23">
-        <v>0</v>
-      </c>
-      <c r="N7" s="23">
-        <v>0</v>
-      </c>
-      <c r="O7" s="23">
-        <v>0</v>
-      </c>
-      <c r="P7" s="24">
-        <v>0</v>
-      </c>
-      <c r="Q7" s="22">
-        <v>1</v>
-      </c>
-      <c r="R7" s="23">
-        <v>0</v>
-      </c>
-      <c r="S7" s="23">
-        <v>0</v>
-      </c>
-      <c r="T7" s="23">
-        <v>0</v>
-      </c>
-      <c r="U7" s="24">
-        <v>0</v>
-      </c>
-      <c r="V7" s="22">
-        <v>0</v>
-      </c>
-      <c r="W7" s="23">
-        <v>0</v>
-      </c>
-      <c r="X7" s="23">
-        <v>0</v>
-      </c>
-      <c r="Y7" s="23">
-        <v>0</v>
-      </c>
-      <c r="Z7" s="24">
-        <v>0</v>
-      </c>
-      <c r="AA7" s="22">
-        <v>0</v>
-      </c>
-      <c r="AB7" s="23">
-        <v>0</v>
-      </c>
-      <c r="AC7" s="23">
-        <v>0</v>
-      </c>
-      <c r="AD7" s="23">
-        <v>0</v>
-      </c>
-      <c r="AE7" s="24">
-        <v>0</v>
-      </c>
-      <c r="AF7" s="22">
-        <v>0</v>
-      </c>
-      <c r="AG7" s="23">
-        <v>0</v>
-      </c>
-      <c r="AH7" s="23">
-        <v>0</v>
-      </c>
-      <c r="AI7" s="23">
-        <v>0</v>
-      </c>
-      <c r="AJ7" s="24">
+      <c r="B7" s="14">
+        <v>0</v>
+      </c>
+      <c r="C7" s="15">
+        <v>1</v>
+      </c>
+      <c r="D7" s="15">
+        <v>0</v>
+      </c>
+      <c r="E7" s="15">
+        <v>1</v>
+      </c>
+      <c r="F7" s="16">
+        <v>0</v>
+      </c>
+      <c r="G7" s="14">
+        <v>0</v>
+      </c>
+      <c r="H7" s="15">
+        <v>0</v>
+      </c>
+      <c r="I7" s="15">
+        <v>0</v>
+      </c>
+      <c r="J7" s="15">
+        <v>0</v>
+      </c>
+      <c r="K7" s="16">
+        <v>0</v>
+      </c>
+      <c r="L7" s="14">
+        <v>0</v>
+      </c>
+      <c r="M7" s="15">
+        <v>0</v>
+      </c>
+      <c r="N7" s="15">
+        <v>0</v>
+      </c>
+      <c r="O7" s="15">
+        <v>0</v>
+      </c>
+      <c r="P7" s="16">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="14">
+        <v>1</v>
+      </c>
+      <c r="R7" s="15">
+        <v>0</v>
+      </c>
+      <c r="S7" s="15">
+        <v>0</v>
+      </c>
+      <c r="T7" s="15">
+        <v>0</v>
+      </c>
+      <c r="U7" s="16">
+        <v>0</v>
+      </c>
+      <c r="V7" s="14">
+        <v>0</v>
+      </c>
+      <c r="W7" s="15">
+        <v>0</v>
+      </c>
+      <c r="X7" s="15">
+        <v>0</v>
+      </c>
+      <c r="Y7" s="15">
+        <v>0</v>
+      </c>
+      <c r="Z7" s="16">
+        <v>0</v>
+      </c>
+      <c r="AA7" s="14">
+        <v>0</v>
+      </c>
+      <c r="AB7" s="15">
+        <v>0</v>
+      </c>
+      <c r="AC7" s="15">
+        <v>0</v>
+      </c>
+      <c r="AD7" s="15">
+        <v>0</v>
+      </c>
+      <c r="AE7" s="16">
+        <v>0</v>
+      </c>
+      <c r="AF7" s="14">
+        <v>0</v>
+      </c>
+      <c r="AG7" s="15">
+        <v>0</v>
+      </c>
+      <c r="AH7" s="15">
+        <v>0</v>
+      </c>
+      <c r="AI7" s="15">
+        <v>0</v>
+      </c>
+      <c r="AJ7" s="16">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:36" s="8" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="25" t="str">
+    <row r="8" spans="1:36" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="17" t="str">
         <f>Appliances!A6</f>
         <v>Washbasin 1</v>
       </c>
-      <c r="B8" s="26">
-        <v>0</v>
-      </c>
-      <c r="C8" s="27">
-        <v>0</v>
-      </c>
-      <c r="D8" s="27">
-        <v>0</v>
-      </c>
-      <c r="E8" s="27">
-        <v>0</v>
-      </c>
-      <c r="F8" s="28">
-        <v>1</v>
-      </c>
-      <c r="G8" s="26">
-        <v>0</v>
-      </c>
-      <c r="H8" s="27">
-        <v>0</v>
-      </c>
-      <c r="I8" s="27">
-        <v>0</v>
-      </c>
-      <c r="J8" s="27">
-        <v>0</v>
-      </c>
-      <c r="K8" s="28">
-        <v>1</v>
-      </c>
-      <c r="L8" s="26">
-        <v>0</v>
-      </c>
-      <c r="M8" s="27">
-        <v>0</v>
-      </c>
-      <c r="N8" s="27">
-        <v>0</v>
-      </c>
-      <c r="O8" s="27">
-        <v>0</v>
-      </c>
-      <c r="P8" s="28">
-        <v>1</v>
-      </c>
-      <c r="Q8" s="26">
-        <v>1</v>
-      </c>
-      <c r="R8" s="27">
-        <v>0</v>
-      </c>
-      <c r="S8" s="27">
-        <v>0</v>
-      </c>
-      <c r="T8" s="27">
-        <v>0</v>
-      </c>
-      <c r="U8" s="28">
-        <v>1</v>
-      </c>
-      <c r="V8" s="26">
-        <v>0</v>
-      </c>
-      <c r="W8" s="27">
-        <v>0</v>
-      </c>
-      <c r="X8" s="27">
-        <v>0</v>
-      </c>
-      <c r="Y8" s="27">
-        <v>0</v>
-      </c>
-      <c r="Z8" s="28">
-        <v>1</v>
-      </c>
-      <c r="AA8" s="26">
-        <v>0</v>
-      </c>
-      <c r="AB8" s="27">
-        <v>0</v>
-      </c>
-      <c r="AC8" s="27">
-        <v>0</v>
-      </c>
-      <c r="AD8" s="27">
-        <v>0</v>
-      </c>
-      <c r="AE8" s="28">
-        <v>1</v>
-      </c>
-      <c r="AF8" s="26">
-        <v>0</v>
-      </c>
-      <c r="AG8" s="27">
-        <v>0</v>
-      </c>
-      <c r="AH8" s="27">
-        <v>0</v>
-      </c>
-      <c r="AI8" s="27">
-        <v>0</v>
-      </c>
-      <c r="AJ8" s="28">
+      <c r="B8" s="18">
+        <v>0</v>
+      </c>
+      <c r="C8" s="19">
+        <v>0</v>
+      </c>
+      <c r="D8" s="19">
+        <v>0</v>
+      </c>
+      <c r="E8" s="19">
+        <v>0</v>
+      </c>
+      <c r="F8" s="20">
+        <v>1</v>
+      </c>
+      <c r="G8" s="18">
+        <v>0</v>
+      </c>
+      <c r="H8" s="19">
+        <v>0</v>
+      </c>
+      <c r="I8" s="19">
+        <v>0</v>
+      </c>
+      <c r="J8" s="19">
+        <v>0</v>
+      </c>
+      <c r="K8" s="20">
+        <v>1</v>
+      </c>
+      <c r="L8" s="18">
+        <v>0</v>
+      </c>
+      <c r="M8" s="19">
+        <v>0</v>
+      </c>
+      <c r="N8" s="19">
+        <v>0</v>
+      </c>
+      <c r="O8" s="19">
+        <v>0</v>
+      </c>
+      <c r="P8" s="20">
+        <v>1</v>
+      </c>
+      <c r="Q8" s="18">
+        <v>1</v>
+      </c>
+      <c r="R8" s="19">
+        <v>0</v>
+      </c>
+      <c r="S8" s="19">
+        <v>0</v>
+      </c>
+      <c r="T8" s="19">
+        <v>0</v>
+      </c>
+      <c r="U8" s="20">
+        <v>1</v>
+      </c>
+      <c r="V8" s="18">
+        <v>0</v>
+      </c>
+      <c r="W8" s="19">
+        <v>0</v>
+      </c>
+      <c r="X8" s="19">
+        <v>0</v>
+      </c>
+      <c r="Y8" s="19">
+        <v>0</v>
+      </c>
+      <c r="Z8" s="20">
+        <v>1</v>
+      </c>
+      <c r="AA8" s="18">
+        <v>0</v>
+      </c>
+      <c r="AB8" s="19">
+        <v>0</v>
+      </c>
+      <c r="AC8" s="19">
+        <v>0</v>
+      </c>
+      <c r="AD8" s="19">
+        <v>0</v>
+      </c>
+      <c r="AE8" s="20">
+        <v>1</v>
+      </c>
+      <c r="AF8" s="18">
+        <v>0</v>
+      </c>
+      <c r="AG8" s="19">
+        <v>0</v>
+      </c>
+      <c r="AH8" s="19">
+        <v>0</v>
+      </c>
+      <c r="AI8" s="19">
+        <v>0</v>
+      </c>
+      <c r="AJ8" s="20">
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:36" s="8" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="21" t="str">
+    <row r="9" spans="1:36" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="13" t="str">
         <f>Appliances!A7</f>
         <v>Washbasin 2</v>
       </c>
-      <c r="B9" s="22">
-        <v>0</v>
-      </c>
-      <c r="C9" s="23">
-        <v>0</v>
-      </c>
-      <c r="D9" s="23">
-        <v>0</v>
-      </c>
-      <c r="E9" s="23">
-        <v>0</v>
-      </c>
-      <c r="F9" s="24">
-        <v>1</v>
-      </c>
-      <c r="G9" s="22">
-        <v>0</v>
-      </c>
-      <c r="H9" s="23">
-        <v>0</v>
-      </c>
-      <c r="I9" s="23">
-        <v>0</v>
-      </c>
-      <c r="J9" s="23">
-        <v>0</v>
-      </c>
-      <c r="K9" s="24">
-        <v>1</v>
-      </c>
-      <c r="L9" s="22">
-        <v>0</v>
-      </c>
-      <c r="M9" s="23">
-        <v>0</v>
-      </c>
-      <c r="N9" s="23">
-        <v>0</v>
-      </c>
-      <c r="O9" s="23">
-        <v>0</v>
-      </c>
-      <c r="P9" s="24">
-        <v>0</v>
-      </c>
-      <c r="Q9" s="22">
-        <v>1</v>
-      </c>
-      <c r="R9" s="23">
-        <v>0</v>
-      </c>
-      <c r="S9" s="23">
-        <v>0</v>
-      </c>
-      <c r="T9" s="23">
-        <v>0</v>
-      </c>
-      <c r="U9" s="24">
-        <v>0</v>
-      </c>
-      <c r="V9" s="22">
-        <v>0</v>
-      </c>
-      <c r="W9" s="23">
-        <v>0</v>
-      </c>
-      <c r="X9" s="23">
-        <v>0</v>
-      </c>
-      <c r="Y9" s="23">
-        <v>0</v>
-      </c>
-      <c r="Z9" s="24">
-        <v>0</v>
-      </c>
-      <c r="AA9" s="22">
-        <v>0</v>
-      </c>
-      <c r="AB9" s="23">
-        <v>0</v>
-      </c>
-      <c r="AC9" s="23">
-        <v>0</v>
-      </c>
-      <c r="AD9" s="23">
-        <v>0</v>
-      </c>
-      <c r="AE9" s="24">
-        <v>1</v>
-      </c>
-      <c r="AF9" s="22">
-        <v>0</v>
-      </c>
-      <c r="AG9" s="23">
-        <v>0</v>
-      </c>
-      <c r="AH9" s="23">
-        <v>0</v>
-      </c>
-      <c r="AI9" s="23">
-        <v>0</v>
-      </c>
-      <c r="AJ9" s="24">
+      <c r="B9" s="14">
+        <v>0</v>
+      </c>
+      <c r="C9" s="15">
+        <v>0</v>
+      </c>
+      <c r="D9" s="15">
+        <v>0</v>
+      </c>
+      <c r="E9" s="15">
+        <v>0</v>
+      </c>
+      <c r="F9" s="16">
+        <v>1</v>
+      </c>
+      <c r="G9" s="14">
+        <v>0</v>
+      </c>
+      <c r="H9" s="15">
+        <v>0</v>
+      </c>
+      <c r="I9" s="15">
+        <v>0</v>
+      </c>
+      <c r="J9" s="15">
+        <v>0</v>
+      </c>
+      <c r="K9" s="16">
+        <v>1</v>
+      </c>
+      <c r="L9" s="14">
+        <v>0</v>
+      </c>
+      <c r="M9" s="15">
+        <v>0</v>
+      </c>
+      <c r="N9" s="15">
+        <v>0</v>
+      </c>
+      <c r="O9" s="15">
+        <v>0</v>
+      </c>
+      <c r="P9" s="16">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="14">
+        <v>1</v>
+      </c>
+      <c r="R9" s="15">
+        <v>0</v>
+      </c>
+      <c r="S9" s="15">
+        <v>0</v>
+      </c>
+      <c r="T9" s="15">
+        <v>0</v>
+      </c>
+      <c r="U9" s="16">
+        <v>0</v>
+      </c>
+      <c r="V9" s="14">
+        <v>0</v>
+      </c>
+      <c r="W9" s="15">
+        <v>0</v>
+      </c>
+      <c r="X9" s="15">
+        <v>0</v>
+      </c>
+      <c r="Y9" s="15">
+        <v>0</v>
+      </c>
+      <c r="Z9" s="16">
+        <v>0</v>
+      </c>
+      <c r="AA9" s="14">
+        <v>0</v>
+      </c>
+      <c r="AB9" s="15">
+        <v>0</v>
+      </c>
+      <c r="AC9" s="15">
+        <v>0</v>
+      </c>
+      <c r="AD9" s="15">
+        <v>0</v>
+      </c>
+      <c r="AE9" s="16">
+        <v>1</v>
+      </c>
+      <c r="AF9" s="14">
+        <v>0</v>
+      </c>
+      <c r="AG9" s="15">
+        <v>0</v>
+      </c>
+      <c r="AH9" s="15">
+        <v>0</v>
+      </c>
+      <c r="AI9" s="15">
+        <v>0</v>
+      </c>
+      <c r="AJ9" s="16">
         <v>1</v>
       </c>
     </row>

--- a/DHW.xlsx
+++ b/DHW.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Charlie\Documents\GitHub\PHPP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70EDAEE9-F685-44CB-A3D4-77C7EA86FEF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E147C11-3350-437C-AA36-F850D5926A51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{9615D349-3226-4407-857B-2CC3135C9C54}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Appliances" sheetId="1" r:id="rId1"/>
     <sheet name="Usage Pattern" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" calcMode="autoNoTable"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -144,7 +144,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="20">
+  <borders count="21">
     <border>
       <left/>
       <right/>
@@ -421,11 +421,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -509,6 +524,21 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -828,69 +858,69 @@
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="12.1796875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.453125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.1796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.453125" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
+    <row r="1" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="32" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="32" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2">
+      <c r="A2" s="29" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="9">
         <v>40</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
+      <c r="A3" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="17">
         <v>40</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
+      <c r="A4" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="17">
         <v>60</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
+      <c r="A5" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="17">
         <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
+      <c r="A6" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="17">
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
+    <row r="7" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A7" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="33">
         <v>10</v>
       </c>
     </row>
@@ -903,8 +933,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC79B40B-C856-4E54-8710-0EF3281988E2}">
   <dimension ref="A1:AJ9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView tabSelected="1" topLeftCell="S1" workbookViewId="0">
+      <selection activeCell="AK8" sqref="AK8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1214,7 +1244,7 @@
         <v>0</v>
       </c>
       <c r="J4" s="11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K4" s="12">
         <v>0</v>
@@ -1229,13 +1259,13 @@
         <v>0</v>
       </c>
       <c r="O4" s="11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P4" s="12">
         <v>0</v>
       </c>
       <c r="Q4" s="10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R4" s="11">
         <v>1</v>
@@ -1244,7 +1274,7 @@
         <v>0</v>
       </c>
       <c r="T4" s="11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U4" s="12">
         <v>0</v>
@@ -1259,7 +1289,7 @@
         <v>0</v>
       </c>
       <c r="Y4" s="11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z4" s="12">
         <v>0</v>
@@ -1271,10 +1301,10 @@
         <v>1</v>
       </c>
       <c r="AC4" s="11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD4" s="11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE4" s="12">
         <v>0</v>
@@ -1286,10 +1316,10 @@
         <v>1</v>
       </c>
       <c r="AH4" s="11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI4" s="11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ4" s="12">
         <v>0</v>
@@ -1346,7 +1376,7 @@
         <v>0</v>
       </c>
       <c r="Q5" s="14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R5" s="15">
         <v>0</v>
@@ -1421,7 +1451,7 @@
         <v>0</v>
       </c>
       <c r="E6" s="19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F6" s="20">
         <v>0</v>
@@ -1436,7 +1466,7 @@
         <v>0</v>
       </c>
       <c r="J6" s="19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K6" s="20">
         <v>0</v>
@@ -1445,7 +1475,7 @@
         <v>0</v>
       </c>
       <c r="M6" s="19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N6" s="19">
         <v>0</v>
@@ -1457,7 +1487,7 @@
         <v>0</v>
       </c>
       <c r="Q6" s="18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R6" s="19">
         <v>0</v>
@@ -1475,7 +1505,7 @@
         <v>0</v>
       </c>
       <c r="W6" s="19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X6" s="19">
         <v>0</v>
@@ -1505,13 +1535,13 @@
         <v>0</v>
       </c>
       <c r="AG6" s="19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH6" s="19">
         <v>0</v>
       </c>
       <c r="AI6" s="19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ6" s="20">
         <v>0</v>
@@ -1541,13 +1571,13 @@
         <v>0</v>
       </c>
       <c r="H7" s="15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I7" s="15">
         <v>0</v>
       </c>
       <c r="J7" s="15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K7" s="16">
         <v>0</v>
@@ -1556,28 +1586,28 @@
         <v>0</v>
       </c>
       <c r="M7" s="15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N7" s="15">
         <v>0</v>
       </c>
       <c r="O7" s="15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P7" s="16">
         <v>0</v>
       </c>
       <c r="Q7" s="14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R7" s="15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S7" s="15">
         <v>0</v>
       </c>
       <c r="T7" s="15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U7" s="16">
         <v>0</v>
@@ -1586,13 +1616,13 @@
         <v>0</v>
       </c>
       <c r="W7" s="15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X7" s="15">
         <v>0</v>
       </c>
       <c r="Y7" s="15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z7" s="16">
         <v>0</v>
@@ -1601,13 +1631,13 @@
         <v>0</v>
       </c>
       <c r="AB7" s="15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC7" s="15">
         <v>0</v>
       </c>
       <c r="AD7" s="15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE7" s="16">
         <v>0</v>
@@ -1616,13 +1646,13 @@
         <v>0</v>
       </c>
       <c r="AG7" s="15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH7" s="15">
         <v>0</v>
       </c>
       <c r="AI7" s="15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ7" s="16">
         <v>0</v>
@@ -1637,106 +1667,106 @@
         <v>0</v>
       </c>
       <c r="C8" s="19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D8" s="19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E8" s="19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F8" s="20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G8" s="18">
         <v>0</v>
       </c>
       <c r="H8" s="19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I8" s="19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J8" s="19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K8" s="20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L8" s="18">
         <v>0</v>
       </c>
       <c r="M8" s="19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N8" s="19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O8" s="19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P8" s="20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q8" s="18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R8" s="19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S8" s="19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T8" s="19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U8" s="20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V8" s="18">
         <v>0</v>
       </c>
       <c r="W8" s="19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X8" s="19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y8" s="19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z8" s="20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA8" s="18">
         <v>0</v>
       </c>
       <c r="AB8" s="19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC8" s="19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD8" s="19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE8" s="20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF8" s="18">
         <v>0</v>
       </c>
       <c r="AG8" s="19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH8" s="19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI8" s="19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ8" s="20">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:36" s="1" customFormat="1" x14ac:dyDescent="0.35">
@@ -1748,58 +1778,58 @@
         <v>0</v>
       </c>
       <c r="C9" s="15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D9" s="15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E9" s="15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F9" s="16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G9" s="14">
         <v>0</v>
       </c>
       <c r="H9" s="15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I9" s="15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J9" s="15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K9" s="16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L9" s="14">
         <v>0</v>
       </c>
       <c r="M9" s="15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N9" s="15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O9" s="15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P9" s="16">
         <v>0</v>
       </c>
       <c r="Q9" s="14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R9" s="15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S9" s="15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T9" s="15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U9" s="16">
         <v>0</v>
@@ -1808,13 +1838,13 @@
         <v>0</v>
       </c>
       <c r="W9" s="15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X9" s="15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y9" s="15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z9" s="16">
         <v>0</v>
@@ -1823,31 +1853,31 @@
         <v>0</v>
       </c>
       <c r="AB9" s="15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC9" s="15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD9" s="15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE9" s="16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF9" s="14">
         <v>0</v>
       </c>
       <c r="AG9" s="15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH9" s="15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI9" s="15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ9" s="16">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
